--- a/resources/DSM_API_Excel_Data_File.xlsx
+++ b/resources/DSM_API_Excel_Data_File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VHAISDEGANJ\eclipse-workspace\DSM-API-Selenium-Automation-BU\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VHAISDEGANJ\eclipse-workspace\DSM-API-Selenium-Automation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8718D7-CBB3-421F-BCEE-8B63933EF5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07A6FBF-E6FB-4C17-9FA7-A3DD3ED9FE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" xr2:uid="{2E790A17-BDDB-4263-B4F2-E8F43E446407}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="7" xr2:uid="{2E790A17-BDDB-4263-B4F2-E8F43E446407}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="54" r:id="rId1"/>
@@ -20,26 +20,24 @@
     <sheet name="Report_Mail" sheetId="23" r:id="rId5"/>
     <sheet name="Report_UserSummary" sheetId="22" r:id="rId6"/>
     <sheet name="Report_GroupSummary" sheetId="21" r:id="rId7"/>
-    <sheet name="Report_Facility1" sheetId="55" r:id="rId8"/>
-    <sheet name="Report_Facility" sheetId="20" r:id="rId9"/>
-    <sheet name="Report_HISP" sheetId="56" r:id="rId10"/>
-    <sheet name="Report_PointsofOrigin" sheetId="18" r:id="rId11"/>
-    <sheet name="Report_AdHoc" sheetId="53" r:id="rId12"/>
-    <sheet name="Global_Search" sheetId="14" r:id="rId13"/>
-    <sheet name="Admin_Application_Requests" sheetId="29" r:id="rId14"/>
-    <sheet name="Admin_Manage_Accounts" sheetId="28" r:id="rId15"/>
-    <sheet name="Admin_Account_Requests" sheetId="30" r:id="rId16"/>
-    <sheet name="Admin_Manage_Groups" sheetId="32" r:id="rId17"/>
-    <sheet name="Admin_Manage_Facilities" sheetId="31" r:id="rId18"/>
-    <sheet name="Applications" sheetId="35" r:id="rId19"/>
-    <sheet name="Onboarding_Request" sheetId="47" r:id="rId20"/>
-    <sheet name="Onboarding_Documentation" sheetId="45" r:id="rId21"/>
-    <sheet name="Onboarding_PDF" sheetId="46" r:id="rId22"/>
-    <sheet name="User_Settings" sheetId="27" r:id="rId23"/>
-    <sheet name="User_Settings_AppList" sheetId="48" r:id="rId24"/>
-    <sheet name="Report_Events1" sheetId="49" r:id="rId25"/>
-    <sheet name="User_Settings1" sheetId="51" r:id="rId26"/>
-    <sheet name="Index" sheetId="52" r:id="rId27"/>
+    <sheet name="Report_Facility" sheetId="20" r:id="rId8"/>
+    <sheet name="Report_HISP" sheetId="56" r:id="rId9"/>
+    <sheet name="Report_PointsofOrigin" sheetId="18" r:id="rId10"/>
+    <sheet name="Report_AdHoc" sheetId="53" r:id="rId11"/>
+    <sheet name="Global_Search" sheetId="14" r:id="rId12"/>
+    <sheet name="Admin_Application_Requests" sheetId="29" r:id="rId13"/>
+    <sheet name="Admin_Manage_Accounts" sheetId="28" r:id="rId14"/>
+    <sheet name="Admin_Account_Requests" sheetId="30" r:id="rId15"/>
+    <sheet name="Admin_Manage_Groups" sheetId="32" r:id="rId16"/>
+    <sheet name="Admin_Manage_Facilities" sheetId="31" r:id="rId17"/>
+    <sheet name="Applications" sheetId="35" r:id="rId18"/>
+    <sheet name="Onboarding_Request" sheetId="47" r:id="rId19"/>
+    <sheet name="Onboarding_Documentation" sheetId="45" r:id="rId20"/>
+    <sheet name="Onboarding_PDF" sheetId="46" r:id="rId21"/>
+    <sheet name="User_Settings" sheetId="27" r:id="rId22"/>
+    <sheet name="User_Settings_AppList" sheetId="48" r:id="rId23"/>
+    <sheet name="User_Settings1" sheetId="51" r:id="rId24"/>
+    <sheet name="Index" sheetId="52" r:id="rId25"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -51,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="257">
   <si>
     <t>Browser</t>
   </si>
@@ -68,12 +66,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>john.egan4</t>
-  </si>
-  <si>
     <t>7332</t>
   </si>
   <si>
@@ -95,9 +87,6 @@
     <t>Actor</t>
   </si>
   <si>
-    <t>user application</t>
-  </si>
-  <si>
     <t>Acting Type</t>
   </si>
   <si>
@@ -137,9 +126,6 @@
     <t>Attachments</t>
   </si>
   <si>
-    <t>Mailbox</t>
-  </si>
-  <si>
     <t>Folder</t>
   </si>
   <si>
@@ -312,9 +298,6 @@
   </si>
   <si>
     <t>VLER</t>
-  </si>
-  <si>
-    <t>Approve application</t>
   </si>
   <si>
     <t>App Request</t>
@@ -854,145 +837,115 @@
     <t>Kevin</t>
   </si>
   <si>
+    <t>Alaska VA Healthcare System (463)</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>Direct Secure Messaging API</t>
+  </si>
+  <si>
+    <t>SettingsFacility</t>
+  </si>
+  <si>
+    <t>dev.direct.va.gov</t>
+  </si>
+  <si>
+    <t>ReportHISP</t>
+  </si>
+  <si>
+    <t>demo.stagingcernerdirect.com</t>
+  </si>
+  <si>
+    <t>AccountFacility</t>
+  </si>
+  <si>
+    <t>address_Line1</t>
+  </si>
+  <si>
+    <t>address_Line2</t>
+  </si>
+  <si>
+    <t>city_field</t>
+  </si>
+  <si>
+    <t>state_field</t>
+  </si>
+  <si>
+    <t>zip_field</t>
+  </si>
+  <si>
+    <t>country_field</t>
+  </si>
+  <si>
+    <t>npi_field</t>
+  </si>
+  <si>
+    <t>5850 Belmar St</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>AAA Group Name 402</t>
+  </si>
+  <si>
+    <t>AAA Group Display Name 402</t>
+  </si>
+  <si>
+    <t>AAA Group Description 402</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>facility_field</t>
+  </si>
+  <si>
+    <t>402 Canal St</t>
+  </si>
+  <si>
+    <t>Apt 402</t>
+  </si>
+  <si>
+    <t>NewOrleans</t>
+  </si>
+  <si>
+    <t>Louisanna</t>
+  </si>
+  <si>
+    <t>CreateAccount4200</t>
+  </si>
+  <si>
+    <t>Mary Egan</t>
+  </si>
+  <si>
+    <t>VISN_field</t>
+  </si>
+  <si>
+    <t>zFac4300</t>
+  </si>
+  <si>
     <t>Sent</t>
   </si>
   <si>
-    <t>Alaska VA Healthcare System (463)</t>
-  </si>
-  <si>
-    <t>AAA101@test1.direct.va.gov</t>
-  </si>
-  <si>
-    <t>AAA101</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Atest</t>
-  </si>
-  <si>
-    <t>Albany VA Medical Center (528A8)</t>
-  </si>
-  <si>
-    <t>Atest@test1.direct.va.gov</t>
-  </si>
-  <si>
-    <t>Augusta VA Medical Center (509)</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <t>Direct Secure Messaging API</t>
-  </si>
-  <si>
-    <t>SettingsFacility</t>
-  </si>
-  <si>
-    <t>dev.direct.va.gov</t>
-  </si>
-  <si>
-    <t>ReportHISP</t>
-  </si>
-  <si>
-    <t>demo.stagingcernerdirect.com</t>
-  </si>
-  <si>
-    <t>AccountFacility</t>
-  </si>
-  <si>
-    <t>address_Line1</t>
-  </si>
-  <si>
-    <t>address_Line2</t>
-  </si>
-  <si>
-    <t>city_field</t>
-  </si>
-  <si>
-    <t>state_field</t>
-  </si>
-  <si>
-    <t>zip_field</t>
-  </si>
-  <si>
-    <t>country_field</t>
-  </si>
-  <si>
-    <t>npi_field</t>
-  </si>
-  <si>
-    <t>5850 Belmar St</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>Portland</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>AAA Group Name 402</t>
-  </si>
-  <si>
-    <t>AAA Group Display Name 402</t>
-  </si>
-  <si>
-    <t>AAA Group Description 402</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>facility_field</t>
-  </si>
-  <si>
-    <t>402 Canal St</t>
-  </si>
-  <si>
-    <t>Apt 402</t>
-  </si>
-  <si>
-    <t>NewOrleans</t>
-  </si>
-  <si>
-    <t>Louisanna</t>
-  </si>
-  <si>
-    <t>zFac402</t>
-  </si>
-  <si>
-    <t>CreateAccount4200</t>
-  </si>
-  <si>
-    <t>06/01/2022 01:30 pm EST</t>
-  </si>
-  <si>
-    <t>Mary Egan</t>
-  </si>
-  <si>
-    <t>Received</t>
-  </si>
-  <si>
-    <t>12/01/2022 01:30 pm EST</t>
-  </si>
-  <si>
-    <t>11/18/2022 01:30 pm EST</t>
-  </si>
-  <si>
-    <t>01/17/2021 01:30 pm EST</t>
-  </si>
-  <si>
-    <t>06/01/2021 01:30 pm EST</t>
+    <t>01/1/2023</t>
+  </si>
+  <si>
+    <t>06/1/2023</t>
+  </si>
+  <si>
+    <t>Published DT</t>
+  </si>
+  <si>
+    <t>Readonly</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1246,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1375,6 +1328,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1766,9 +1722,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D97A8A-6120-4079-9FFE-D954B9CFDB9C}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1786,25 +1742,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>158</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1817,72 +1773,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31373E80-A585-4A0D-86D2-ED912C0C0355}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{C55C4628-1010-4410-BFE7-EF4CF2F045F0}">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369B31E-6D05-404E-8A80-D1EB44DCD238}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1901,13 +1791,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1915,13 +1805,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>268</v>
+        <v>216</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1929,13 +1819,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>268</v>
+        <v>217</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1949,7 +1839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2A3D6D-90D4-4C97-B82D-BA4055B07567}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1966,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1985,9 +1875,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C517E244-E3DC-4F9D-8DC7-638139EC200E}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1999,102 +1889,69 @@
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="3"/>
-    <col min="9" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="8" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>252</v>
+      </c>
       <c r="H2" s="9" t="s">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>268</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{DA5B80A1-6E89-48E1-BDB0-75D5A74011A7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{DA5B80A1-6E89-48E1-BDB0-75D5A74011A7}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2103,7 +1960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75AFF6D-27BD-4106-9C01-742454C17FDA}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2120,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2128,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2141,7 +1998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D74E09-572D-408E-B058-FABA6BD156A3}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -2168,40 +2025,40 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2209,28 +2066,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C2" s="7">
         <v>5850</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J2" s="7">
         <v>6108675309</v>
@@ -2239,10 +2096,10 @@
         <v>6108675310</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2256,7 +2113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223D6538-C9A9-4EE1-BC0D-6FA39D7FF07C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2273,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2281,7 +2138,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2295,7 +2152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771BDE70-4D2C-42D0-ABF2-557D012A19BC}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -2322,37 +2179,37 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2360,37 +2217,37 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="J2" s="7">
         <v>70119</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2404,11 +2261,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793692BD-F583-482E-B74A-4F35ABAE46A1}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2416,69 +2273,75 @@
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G2" s="7">
         <v>12345</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="I2" s="7">
-        <v>1111111192</v>
+        <v>43004300</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0542E66-AC85-46B9-BD55-0A2FAC4A1F43}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2510,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2518,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2532,97 +2395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482C5802-7F3F-4BAB-82F5-0532703E7F04}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{0E7A4A7C-2DA4-4078-988D-B1D258E73069}">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E054BC2-88A8-4F31-8AE6-01C1AD21F8D7}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2644,25 +2417,25 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2670,25 +2443,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +2475,99 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482C5802-7F3F-4BAB-82F5-0532703E7F04}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{0E7A4A7C-2DA4-4078-988D-B1D258E73069}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF65F88C-B877-4DF0-A70E-29852AD3A3E4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2718,7 +2583,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2726,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2739,7 +2604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0BA37A-E840-43C0-B6C7-BF6AB7CB69C7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2755,15 +2620,15 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D544C48F-6526-4A2F-9372-CDE25D2D6F13}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -2802,37 +2667,37 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2840,35 +2705,35 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2881,7 +2746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC75C070-6460-40B0-B5B9-9E4839827BD1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2898,7 +2763,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2906,17 +2771,17 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2930,119 +2795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E0F92E-A0BA-4A3E-BB69-150585B7DF39}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
-    <col min="9" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>106220</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>106220</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{FE7482FF-2D23-4BCB-9607-AD4DAD816611}">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE854603-BAC6-4CA1-8D86-57B5E83DDA8F}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -3068,37 +2821,37 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -3106,25 +2859,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="I2" s="7">
         <v>6108675309</v>
@@ -3133,10 +2886,10 @@
         <v>6108675310</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3149,7 +2902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CB19D8-632B-4B24-84F1-E30C5BC8FC1F}">
   <dimension ref="A1:H29"/>
   <sheetViews>
@@ -3169,388 +2922,388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="27" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="G16" s="27" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="G17" s="27" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G18" s="27">
         <v>12</v>
@@ -3558,245 +3311,245 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G24" s="27" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G25" s="27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="G28" s="27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3896,31 +3649,31 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3934,15 +3687,15 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>268</v>
+      <c r="I2" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3958,18 +3711,18 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>268</v>
+        <v>221</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{230A2432-99ED-4CE8-ABCB-0CCDE4F8A023}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
@@ -3981,9 +3734,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E1F537-DB62-46A2-BF35-D881383E80E9}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4003,31 +3758,31 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4035,36 +3790,68 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2">
         <v>676411</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>268</v>
+      <c r="I2" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{51F11FA0-E077-4A96-B030-9A01C4F8C9A5}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{51F11FA0-E077-4A96-B030-9A01C4F8C9A5}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4084,7 +3871,7 @@
     <col min="1" max="1" width="26.109375" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
@@ -4099,37 +3886,37 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -4138,18 +3925,20 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>1570016</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>269</v>
+      <c r="K2" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4164,14 +3953,14 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>269</v>
+      <c r="K3" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4187,7 +3976,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED2E3E7-3900-4864-BACB-AE73179F12EC}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4201,89 +3990,169 @@
     <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>268</v>
+        <v>63</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{46AF39D8-556E-4302-9541-DAE1EA678017}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{46AF39D8-556E-4302-9541-DAE1EA678017}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="john.egan4@test1.direct.va.gov" xr:uid="{1BC2E1B1-A46A-4634-BF58-F3F823B65112}"/>
+    <hyperlink ref="F3" r:id="rId2" display="john.egan4@test1.direct.va.gov" xr:uid="{0245F3E3-9780-45C5-9F45-0EFFDD342050}"/>
+    <hyperlink ref="F4" r:id="rId3" display="john.egan4@test1.direct.va.gov" xr:uid="{2EDECEC3-1482-4FAA-B50A-CA7510F73E3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17268AE3-143C-46B2-9EF1-D75836ECDF5B}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4293,82 +4162,104 @@
     <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>232</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>268</v>
+        <v>63</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{EC45CC71-D95A-4A24-B2B0-1F9515E53D92}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{EC45CC71-D95A-4A24-B2B0-1F9515E53D92}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4378,15 +4269,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC24C36-356A-43C9-88A3-8CF52D93D882}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C997FC-9823-490B-A430-460EDA0B338D}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4395,13 +4286,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4409,32 +4300,18 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>268</v>
+        <v>42</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{45FD057D-7FD4-4E33-A0B2-B494C356A0B1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{F538F2AC-277B-45D4-9FBD-190356D91AF2}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4444,49 +4321,63 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C997FC-9823-490B-A430-460EDA0B338D}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31373E80-A585-4A0D-86D2-ED912C0C0355}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>268</v>
+      <c r="B2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{F538F2AC-277B-45D4-9FBD-190356D91AF2}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{C55C4628-1010-4410-BFE7-EF4CF2F045F0}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
